--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan Le\git\lktuan-resume\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D98223-8D06-427E-B9DA-78257134D689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DFEDE7-ADF3-4564-AC89-24D904A68948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>group</t>
   </si>
@@ -31,18 +31,6 @@
     <t>details</t>
   </si>
   <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t>dashboard design</t>
-  </si>
-  <si>
-    <t>data visualization</t>
-  </si>
-  <si>
-    <t>programming languages</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -52,88 +40,76 @@
     <t>SQL</t>
   </si>
   <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Domain Expertise</t>
+  </si>
+  <si>
+    <t>Credit risk analytics</t>
+  </si>
+  <si>
+    <t>Customer segmentation</t>
+  </si>
+  <si>
+    <t>Product pricing</t>
+  </si>
+  <si>
+    <t>Financial analysis</t>
+  </si>
+  <si>
+    <t>Data Processing</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Excel &amp; Power Query</t>
+  </si>
+  <si>
+    <t>Google Sheets &amp; Apps Script</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>dplyr</t>
+  </si>
+  <si>
     <t>Power BI</t>
   </si>
   <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>problem-solving</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>analytical thinking</t>
-  </si>
-  <si>
-    <t>detailed and result oriented</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>portfolio management</t>
-  </si>
-  <si>
-    <t>post-lending policy</t>
-  </si>
-  <si>
-    <t>business forecasting</t>
-  </si>
-  <si>
-    <t>customer behaviour</t>
-  </si>
-  <si>
-    <t>self-research</t>
-  </si>
-  <si>
-    <t>financial planning &amp; analysis</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>other skills</t>
-  </si>
-  <si>
-    <t>financial accounting &amp; reporting</t>
-  </si>
-  <si>
-    <t>credit risk</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>reporting &amp; presentation</t>
-  </si>
-  <si>
-    <t>data cleansing &amp; transformation</t>
-  </si>
-  <si>
-    <t>data quality control</t>
-  </si>
-  <si>
-    <t>data wrangling &amp; reporting</t>
-  </si>
-  <si>
-    <t>MS Office</t>
-  </si>
-  <si>
-    <t>Excel, GGPlot2</t>
-  </si>
-  <si>
-    <t>knowledge sharing</t>
-  </si>
-  <si>
-    <t>CMD, task scheduler, SAS schedule manager</t>
+    <t>Ggplot2</t>
+  </si>
+  <si>
+    <t>R Markdown &amp; Quarto</t>
+  </si>
+  <si>
+    <t>Modeling</t>
+  </si>
+  <si>
+    <t>Power Pivot &amp; Power BI</t>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+  </si>
+  <si>
+    <t>statsmodels</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>PowerShell/Bash</t>
+  </si>
+  <si>
+    <t>Visualization/Presentation</t>
+  </si>
+  <si>
+    <t>Excel &amp; Powerpoint</t>
   </si>
 </sst>
 </file>
@@ -974,17 +950,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -993,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1004,278 +980,233 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
